--- a/테스트1/결과_템플릿.xlsx
+++ b/테스트1/결과_템플릿.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김영석\Desktop\테스트\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김영석\Documents\GitHub\uipath-quiz\테스트1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25244EC9-C165-48A3-9838-9155FB5F09C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A215EDDF-472C-454E-AC7B-64B8442AFA29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{48803ECA-9643-4D0B-A28E-0DE9F489CAB4}"/>
+    <workbookView xWindow="7275" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{48803ECA-9643-4D0B-A28E-0DE9F489CAB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,13 +36,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>나이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영문이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -460,18 +472,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{036E6EB3-E7C4-4C2E-972F-6D530BD56F4D}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="16.125" customWidth="1"/>
+    <col min="5" max="5" width="12.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/테스트1/결과_템플릿.xlsx
+++ b/테스트1/결과_템플릿.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김영석\Documents\GitHub\uipath-quiz\테스트1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A215EDDF-472C-454E-AC7B-64B8442AFA29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD9FD516-BFA7-4C18-A0AA-2832398E6860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7275" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{48803ECA-9643-4D0B-A28E-0DE9F489CAB4}"/>
+    <workbookView xWindow="7305" yWindow="3285" windowWidth="21600" windowHeight="12645" xr2:uid="{48803ECA-9643-4D0B-A28E-0DE9F489CAB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -474,7 +474,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{036E6EB3-E7C4-4C2E-972F-6D530BD56F4D}">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
